--- a/MYSQL/주문서/정규화-주문서.xlsx
+++ b/MYSQL/주문서/정규화-주문서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS505202\Documents\workspace\DBMS\MYSQL\주문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{795DCDF4-6CF7-491C-925D-94A99F4119AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17A3FB5-66C7-47B6-99EF-E268686D776E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8400" yWindow="405" windowWidth="19455" windowHeight="14475" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5265" yWindow="705" windowWidth="19455" windowHeight="14475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="주문원장" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4072" uniqueCount="1244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4072" uniqueCount="1243">
   <si>
     <t>010-4922-4250</t>
   </si>
@@ -2834,9 +2834,6 @@
   </si>
   <si>
     <t>P00001</t>
-  </si>
-  <si>
-    <t>P00000</t>
   </si>
   <si>
     <t>상품코드1</t>
@@ -4231,8 +4228,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:F331"/>
   <sheetViews>
-    <sheetView topLeftCell="A309" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4254,13 +4251,13 @@
         <v>697</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>917</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>918</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>919</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>920</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -4396,7 +4393,7 @@
         <v>88</v>
       </c>
       <c r="D9" t="s">
-        <v>917</v>
+        <v>767</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -5193,7 +5190,7 @@
         <v>773</v>
       </c>
       <c r="F55" t="s">
-        <v>917</v>
+        <v>767</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -5374,7 +5371,7 @@
         <v>760</v>
       </c>
       <c r="F66" t="s">
-        <v>917</v>
+        <v>767</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -5510,7 +5507,7 @@
         <v>702</v>
       </c>
       <c r="E74" t="s">
-        <v>917</v>
+        <v>767</v>
       </c>
       <c r="F74" t="s">
         <v>735</v>
@@ -5700,7 +5697,7 @@
         <v>746</v>
       </c>
       <c r="E85" t="s">
-        <v>917</v>
+        <v>767</v>
       </c>
       <c r="F85" t="s">
         <v>743</v>
@@ -7068,7 +7065,7 @@
         <v>711</v>
       </c>
       <c r="E166" t="s">
-        <v>917</v>
+        <v>767</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
@@ -7853,7 +7850,7 @@
         <v>233</v>
       </c>
       <c r="D212" t="s">
-        <v>917</v>
+        <v>767</v>
       </c>
       <c r="E212" t="s">
         <v>750</v>
@@ -11903,8 +11900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{156DFC64-CBAD-45CE-BB06-2448DDBBBE00}">
   <dimension ref="A1:D654"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A627" workbookViewId="0">
-      <selection activeCell="B644" sqref="B644"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12147,7 +12144,7 @@
         <v>88</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>917</v>
+        <v>767</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -13505,7 +13502,7 @@
         <v>513</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>917</v>
+        <v>767</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -13785,7 +13782,7 @@
         <v>238</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>917</v>
+        <v>767</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
@@ -14009,7 +14006,7 @@
         <v>104</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>917</v>
+        <v>767</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
@@ -14331,7 +14328,7 @@
         <v>7</v>
       </c>
       <c r="D173" s="7" t="s">
-        <v>917</v>
+        <v>767</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
@@ -16548,7 +16545,7 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B332" s="8">
         <v>43635</v>
@@ -16557,12 +16554,12 @@
         <v>308</v>
       </c>
       <c r="D332" s="7" t="s">
-        <v>917</v>
+        <v>767</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" s="7" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B333" s="8">
         <v>43637</v>
@@ -16576,7 +16573,7 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" s="7" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B334" s="8">
         <v>43637</v>
@@ -16590,7 +16587,7 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" s="7" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B335" s="8">
         <v>43637</v>
@@ -16604,7 +16601,7 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" s="7" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B336" s="8">
         <v>43638</v>
@@ -16618,7 +16615,7 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" s="7" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B337" s="8">
         <v>43638</v>
@@ -16632,7 +16629,7 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" s="7" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B338" s="8">
         <v>43638</v>
@@ -16646,7 +16643,7 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" s="7" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B339" s="8">
         <v>43639</v>
@@ -16660,7 +16657,7 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" s="7" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B340" s="8">
         <v>43639</v>
@@ -16674,7 +16671,7 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" s="7" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B341" s="8">
         <v>43639</v>
@@ -16688,7 +16685,7 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" s="7" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B342" s="8">
         <v>43639</v>
@@ -16702,7 +16699,7 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" s="7" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B343" s="8">
         <v>43640</v>
@@ -16716,7 +16713,7 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" s="7" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B344" s="8">
         <v>43640</v>
@@ -16730,7 +16727,7 @@
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" s="7" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B345" s="8">
         <v>43640</v>
@@ -16744,7 +16741,7 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" s="7" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B346" s="8">
         <v>43643</v>
@@ -16758,7 +16755,7 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" s="7" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B347" s="8">
         <v>43644</v>
@@ -16772,7 +16769,7 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" s="7" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B348" s="8">
         <v>43644</v>
@@ -16786,7 +16783,7 @@
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" s="7" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B349" s="8">
         <v>43645</v>
@@ -16800,7 +16797,7 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" s="7" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B350" s="8">
         <v>43645</v>
@@ -16814,7 +16811,7 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" s="7" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B351" s="8">
         <v>43645</v>
@@ -16828,7 +16825,7 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" s="7" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B352" s="8">
         <v>43649</v>
@@ -16842,7 +16839,7 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" s="7" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B353" s="8">
         <v>43649</v>
@@ -16856,7 +16853,7 @@
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" s="7" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B354" s="8">
         <v>43649</v>
@@ -16870,7 +16867,7 @@
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" s="7" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B355" s="8">
         <v>43652</v>
@@ -16884,7 +16881,7 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" s="7" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B356" s="8">
         <v>43652</v>
@@ -16898,7 +16895,7 @@
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B357" s="8">
         <v>43652</v>
@@ -16912,7 +16909,7 @@
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" s="7" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B358" s="8">
         <v>43652</v>
@@ -16926,7 +16923,7 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" s="7" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B359" s="8">
         <v>43654</v>
@@ -16940,7 +16937,7 @@
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" s="7" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B360" s="8">
         <v>43654</v>
@@ -16954,7 +16951,7 @@
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" s="7" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B361" s="8">
         <v>43654</v>
@@ -16968,7 +16965,7 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" s="7" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B362" s="8">
         <v>43655</v>
@@ -16982,7 +16979,7 @@
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" s="7" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B363" s="8">
         <v>43655</v>
@@ -16996,7 +16993,7 @@
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" s="7" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B364" s="8">
         <v>43656</v>
@@ -17010,7 +17007,7 @@
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" s="7" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B365" s="8">
         <v>43656</v>
@@ -17024,7 +17021,7 @@
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" s="7" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B366" s="8">
         <v>43656</v>
@@ -17038,7 +17035,7 @@
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" s="7" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B367" s="8">
         <v>43660</v>
@@ -17052,7 +17049,7 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" s="7" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B368" s="8">
         <v>43661</v>
@@ -17066,7 +17063,7 @@
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" s="7" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B369" s="8">
         <v>43661</v>
@@ -17080,7 +17077,7 @@
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" s="7" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B370" s="8">
         <v>43661</v>
@@ -17094,7 +17091,7 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" s="7" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B371" s="8">
         <v>43661</v>
@@ -17108,7 +17105,7 @@
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" s="7" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B372" s="8">
         <v>43661</v>
@@ -17122,7 +17119,7 @@
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" s="7" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B373" s="8">
         <v>43661</v>
@@ -17136,7 +17133,7 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" s="7" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B374" s="8">
         <v>43662</v>
@@ -17150,7 +17147,7 @@
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" s="7" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B375" s="8">
         <v>43662</v>
@@ -17164,7 +17161,7 @@
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" s="7" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B376" s="8">
         <v>43662</v>
@@ -17178,7 +17175,7 @@
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" s="7" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B377" s="8">
         <v>43662</v>
@@ -17192,7 +17189,7 @@
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" s="7" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B378" s="8">
         <v>43662</v>
@@ -17206,7 +17203,7 @@
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" s="7" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B379" s="8">
         <v>43662</v>
@@ -17220,7 +17217,7 @@
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" s="7" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B380" s="8">
         <v>43665</v>
@@ -17234,7 +17231,7 @@
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" s="7" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B381" s="8">
         <v>43665</v>
@@ -17248,7 +17245,7 @@
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" s="7" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B382" s="8">
         <v>43665</v>
@@ -17262,7 +17259,7 @@
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" s="7" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B383" s="8">
         <v>43665</v>
@@ -17276,7 +17273,7 @@
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" s="7" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B384" s="8">
         <v>43665</v>
@@ -17290,7 +17287,7 @@
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" s="7" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B385" s="8">
         <v>43665</v>
@@ -17304,7 +17301,7 @@
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" s="7" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B386" s="8">
         <v>43668</v>
@@ -17318,7 +17315,7 @@
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" s="7" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B387" s="8">
         <v>43668</v>
@@ -17332,7 +17329,7 @@
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" s="7" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B388" s="8">
         <v>43668</v>
@@ -17346,7 +17343,7 @@
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" s="7" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B389" s="8">
         <v>43670</v>
@@ -17360,7 +17357,7 @@
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" s="7" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B390" s="8">
         <v>43670</v>
@@ -17374,7 +17371,7 @@
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" s="7" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B391" s="8">
         <v>43670</v>
@@ -17388,7 +17385,7 @@
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" s="7" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B392" s="8">
         <v>43670</v>
@@ -17402,7 +17399,7 @@
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" s="7" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B393" s="8">
         <v>43670</v>
@@ -17416,7 +17413,7 @@
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" s="7" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B394" s="8">
         <v>43671</v>
@@ -17430,7 +17427,7 @@
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" s="7" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B395" s="8">
         <v>43671</v>
@@ -17444,7 +17441,7 @@
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396" s="7" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B396" s="8">
         <v>43671</v>
@@ -17458,7 +17455,7 @@
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397" s="7" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B397" s="8">
         <v>43672</v>
@@ -17472,7 +17469,7 @@
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" s="7" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B398" s="8">
         <v>43673</v>
@@ -17486,7 +17483,7 @@
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" s="7" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B399" s="8">
         <v>43673</v>
@@ -17500,7 +17497,7 @@
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400" s="7" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B400" s="8">
         <v>43673</v>
@@ -17514,7 +17511,7 @@
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" s="7" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B401" s="8">
         <v>43673</v>
@@ -17528,7 +17525,7 @@
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" s="7" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B402" s="8">
         <v>43674</v>
@@ -17542,7 +17539,7 @@
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" s="7" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B403" s="8">
         <v>43674</v>
@@ -17556,7 +17553,7 @@
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" s="7" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B404" s="8">
         <v>43674</v>
@@ -17570,7 +17567,7 @@
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" s="7" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B405" s="8">
         <v>43675</v>
@@ -17584,7 +17581,7 @@
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406" s="7" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B406" s="8">
         <v>43682</v>
@@ -17598,7 +17595,7 @@
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407" s="7" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B407" s="8">
         <v>43684</v>
@@ -17612,7 +17609,7 @@
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408" s="7" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B408" s="8">
         <v>43685</v>
@@ -17626,7 +17623,7 @@
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409" s="7" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B409" s="8">
         <v>43686</v>
@@ -17640,7 +17637,7 @@
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410" s="7" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B410" s="8">
         <v>43688</v>
@@ -17654,7 +17651,7 @@
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411" s="7" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B411" s="8">
         <v>43689</v>
@@ -17668,7 +17665,7 @@
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B412" s="8">
         <v>43689</v>
@@ -17682,7 +17679,7 @@
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413" s="7" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B413" s="8">
         <v>43690</v>
@@ -17696,7 +17693,7 @@
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A414" s="7" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B414" s="8">
         <v>43690</v>
@@ -17710,7 +17707,7 @@
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415" s="7" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B415" s="8">
         <v>43690</v>
@@ -17724,7 +17721,7 @@
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416" s="7" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B416" s="8">
         <v>43690</v>
@@ -17738,7 +17735,7 @@
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417" s="7" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B417" s="8">
         <v>43690</v>
@@ -17752,7 +17749,7 @@
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418" s="7" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B418" s="8">
         <v>43691</v>
@@ -17766,7 +17763,7 @@
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419" s="7" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B419" s="8">
         <v>43691</v>
@@ -17780,7 +17777,7 @@
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420" s="7" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B420" s="8">
         <v>43691</v>
@@ -17794,7 +17791,7 @@
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421" s="7" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B421" s="8">
         <v>43692</v>
@@ -17808,7 +17805,7 @@
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422" s="7" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B422" s="8">
         <v>43692</v>
@@ -17822,7 +17819,7 @@
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423" s="7" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B423" s="8">
         <v>43692</v>
@@ -17836,7 +17833,7 @@
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A424" s="7" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B424" s="8">
         <v>43694</v>
@@ -17850,7 +17847,7 @@
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A425" s="7" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B425" s="8">
         <v>43696</v>
@@ -17859,12 +17856,12 @@
         <v>233</v>
       </c>
       <c r="D425" s="7" t="s">
-        <v>917</v>
+        <v>767</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A426" s="7" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B426" s="8">
         <v>43696</v>
@@ -17878,7 +17875,7 @@
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A427" s="7" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B427" s="8">
         <v>43696</v>
@@ -17892,7 +17889,7 @@
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A428" s="7" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B428" s="8">
         <v>43698</v>
@@ -17906,7 +17903,7 @@
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A429" s="7" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B429" s="8">
         <v>43698</v>
@@ -17920,7 +17917,7 @@
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A430" s="7" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B430" s="8">
         <v>43698</v>
@@ -17934,7 +17931,7 @@
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A431" s="7" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B431" s="8">
         <v>43698</v>
@@ -17948,7 +17945,7 @@
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A432" s="7" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B432" s="8">
         <v>43698</v>
@@ -17962,7 +17959,7 @@
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A433" s="7" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B433" s="8">
         <v>43700</v>
@@ -17976,7 +17973,7 @@
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A434" s="7" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B434" s="8">
         <v>43700</v>
@@ -17990,7 +17987,7 @@
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A435" s="7" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B435" s="8">
         <v>43701</v>
@@ -18004,7 +18001,7 @@
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A436" s="7" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B436" s="8">
         <v>43701</v>
@@ -18018,7 +18015,7 @@
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A437" s="7" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B437" s="8">
         <v>43701</v>
@@ -18032,7 +18029,7 @@
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A438" s="7" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B438" s="8">
         <v>43704</v>
@@ -18046,7 +18043,7 @@
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A439" s="7" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B439" s="8">
         <v>43706</v>
@@ -18060,7 +18057,7 @@
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A440" s="7" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B440" s="8">
         <v>43706</v>
@@ -18074,7 +18071,7 @@
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A441" s="7" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B441" s="8">
         <v>43706</v>
@@ -18088,7 +18085,7 @@
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A442" s="7" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B442" s="8">
         <v>43706</v>
@@ -18102,7 +18099,7 @@
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A443" s="7" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B443" s="8">
         <v>43708</v>
@@ -18116,7 +18113,7 @@
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A444" s="7" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B444" s="8">
         <v>43708</v>
@@ -18130,7 +18127,7 @@
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A445" s="7" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B445" s="8">
         <v>43708</v>
@@ -18144,7 +18141,7 @@
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A446" s="7" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B446" s="8">
         <v>43710</v>
@@ -18158,7 +18155,7 @@
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A447" s="7" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B447" s="8">
         <v>43710</v>
@@ -18172,7 +18169,7 @@
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A448" s="7" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B448" s="8">
         <v>43710</v>
@@ -18186,7 +18183,7 @@
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A449" s="7" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B449" s="8">
         <v>43710</v>
@@ -18200,7 +18197,7 @@
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A450" s="7" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B450" s="8">
         <v>43710</v>
@@ -18214,7 +18211,7 @@
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A451" s="7" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B451" s="8">
         <v>43710</v>
@@ -18228,7 +18225,7 @@
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A452" s="7" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B452" s="8">
         <v>43710</v>
@@ -18242,7 +18239,7 @@
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A453" s="7" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B453" s="8">
         <v>43710</v>
@@ -18256,7 +18253,7 @@
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A454" s="7" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B454" s="8">
         <v>43710</v>
@@ -18270,7 +18267,7 @@
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A455" s="7" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B455" s="8">
         <v>43710</v>
@@ -18284,7 +18281,7 @@
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A456" s="7" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B456" s="8">
         <v>43710</v>
@@ -18298,7 +18295,7 @@
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A457" s="7" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B457" s="8">
         <v>43711</v>
@@ -18312,7 +18309,7 @@
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A458" s="7" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B458" s="8">
         <v>43711</v>
@@ -18326,7 +18323,7 @@
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A459" s="7" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B459" s="8">
         <v>43713</v>
@@ -18340,7 +18337,7 @@
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A460" s="7" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B460" s="8">
         <v>43713</v>
@@ -18354,7 +18351,7 @@
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A461" s="7" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B461" s="8">
         <v>43715</v>
@@ -18368,7 +18365,7 @@
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A462" s="7" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B462" s="8">
         <v>43715</v>
@@ -18382,7 +18379,7 @@
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A463" s="7" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B463" s="8">
         <v>43716</v>
@@ -18396,7 +18393,7 @@
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A464" s="7" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B464" s="8">
         <v>43716</v>
@@ -18410,7 +18407,7 @@
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A465" s="7" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B465" s="8">
         <v>43716</v>
@@ -18424,7 +18421,7 @@
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A466" s="7" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B466" s="8">
         <v>43718</v>
@@ -18438,7 +18435,7 @@
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A467" s="7" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B467" s="8">
         <v>43719</v>
@@ -18452,7 +18449,7 @@
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A468" s="7" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B468" s="8">
         <v>43722</v>
@@ -18466,7 +18463,7 @@
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A469" s="7" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B469" s="8">
         <v>43722</v>
@@ -18480,7 +18477,7 @@
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A470" s="7" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B470" s="8">
         <v>43722</v>
@@ -18494,7 +18491,7 @@
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A471" s="7" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B471" s="8">
         <v>43723</v>
@@ -18508,7 +18505,7 @@
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A472" s="7" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B472" s="8">
         <v>43723</v>
@@ -18522,7 +18519,7 @@
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A473" s="7" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B473" s="8">
         <v>43723</v>
@@ -18536,7 +18533,7 @@
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A474" s="7" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B474" s="8">
         <v>43723</v>
@@ -18550,7 +18547,7 @@
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A475" s="7" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B475" s="8">
         <v>43723</v>
@@ -18564,7 +18561,7 @@
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A476" s="7" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B476" s="8">
         <v>43723</v>
@@ -18578,7 +18575,7 @@
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A477" s="7" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B477" s="8">
         <v>43725</v>
@@ -18592,7 +18589,7 @@
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A478" s="7" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B478" s="8">
         <v>43725</v>
@@ -18606,7 +18603,7 @@
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A479" s="7" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B479" s="8">
         <v>43728</v>
@@ -18620,7 +18617,7 @@
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A480" s="7" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B480" s="8">
         <v>43728</v>
@@ -18634,7 +18631,7 @@
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A481" s="7" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B481" s="8">
         <v>43731</v>
@@ -18648,7 +18645,7 @@
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A482" s="7" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B482" s="8">
         <v>43731</v>
@@ -18662,7 +18659,7 @@
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A483" s="7" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B483" s="8">
         <v>43731</v>
@@ -18676,7 +18673,7 @@
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A484" s="7" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B484" s="8">
         <v>43731</v>
@@ -18690,7 +18687,7 @@
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A485" s="7" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B485" s="8">
         <v>43731</v>
@@ -18704,7 +18701,7 @@
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A486" s="7" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B486" s="8">
         <v>43735</v>
@@ -18718,7 +18715,7 @@
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A487" s="7" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B487" s="8">
         <v>43736</v>
@@ -18732,7 +18729,7 @@
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A488" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B488" s="8">
         <v>43736</v>
@@ -18746,7 +18743,7 @@
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A489" s="7" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B489" s="8">
         <v>43736</v>
@@ -18760,7 +18757,7 @@
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A490" s="7" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B490" s="8">
         <v>43736</v>
@@ -18774,7 +18771,7 @@
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A491" s="7" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B491" s="8">
         <v>43736</v>
@@ -18788,7 +18785,7 @@
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A492" s="7" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B492" s="8">
         <v>43736</v>
@@ -18802,7 +18799,7 @@
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A493" s="7" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B493" s="8">
         <v>43736</v>
@@ -18816,7 +18813,7 @@
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A494" s="7" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B494" s="8">
         <v>43736</v>
@@ -18830,7 +18827,7 @@
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A495" s="7" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B495" s="8">
         <v>43737</v>
@@ -18844,7 +18841,7 @@
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A496" s="7" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B496" s="8">
         <v>43737</v>
@@ -18858,7 +18855,7 @@
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A497" s="7" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B497" s="8">
         <v>43737</v>
@@ -18872,7 +18869,7 @@
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A498" s="7" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B498" s="8">
         <v>43737</v>
@@ -18886,7 +18883,7 @@
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A499" s="7" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B499" s="8">
         <v>43737</v>
@@ -18900,7 +18897,7 @@
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A500" s="7" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B500" s="8">
         <v>43737</v>
@@ -18914,7 +18911,7 @@
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A501" s="7" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B501" s="8">
         <v>43739</v>
@@ -18928,7 +18925,7 @@
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A502" s="7" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B502" s="8">
         <v>43740</v>
@@ -18942,7 +18939,7 @@
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A503" s="7" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B503" s="8">
         <v>43740</v>
@@ -18956,7 +18953,7 @@
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A504" s="7" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B504" s="8">
         <v>43740</v>
@@ -18970,7 +18967,7 @@
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A505" s="7" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B505" s="8">
         <v>43741</v>
@@ -18984,7 +18981,7 @@
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A506" s="7" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B506" s="8">
         <v>43741</v>
@@ -18998,7 +18995,7 @@
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A507" s="7" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B507" s="8">
         <v>43742</v>
@@ -19012,7 +19009,7 @@
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A508" s="7" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B508" s="8">
         <v>43742</v>
@@ -19026,7 +19023,7 @@
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A509" s="7" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B509" s="8">
         <v>43743</v>
@@ -19040,7 +19037,7 @@
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A510" s="7" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B510" s="8">
         <v>43747</v>
@@ -19054,7 +19051,7 @@
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A511" s="7" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B511" s="8">
         <v>43748</v>
@@ -19068,7 +19065,7 @@
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A512" s="7" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="B512" s="8">
         <v>43748</v>
@@ -19082,7 +19079,7 @@
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A513" s="7" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B513" s="8">
         <v>43748</v>
@@ -19096,7 +19093,7 @@
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A514" s="7" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B514" s="8">
         <v>43748</v>
@@ -19110,7 +19107,7 @@
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A515" s="7" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B515" s="8">
         <v>43748</v>
@@ -19124,7 +19121,7 @@
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A516" s="7" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B516" s="8">
         <v>43748</v>
@@ -19138,7 +19135,7 @@
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A517" s="7" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B517" s="8">
         <v>43755</v>
@@ -19152,7 +19149,7 @@
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A518" s="7" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B518" s="8">
         <v>43755</v>
@@ -19166,7 +19163,7 @@
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A519" s="7" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B519" s="8">
         <v>43755</v>
@@ -19180,7 +19177,7 @@
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A520" s="7" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B520" s="8">
         <v>43757</v>
@@ -19194,7 +19191,7 @@
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A521" s="7" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B521" s="8">
         <v>43757</v>
@@ -19208,7 +19205,7 @@
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A522" s="7" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B522" s="8">
         <v>43757</v>
@@ -19222,7 +19219,7 @@
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A523" s="7" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B523" s="8">
         <v>43759</v>
@@ -19236,7 +19233,7 @@
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A524" s="7" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B524" s="8">
         <v>43759</v>
@@ -19250,7 +19247,7 @@
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A525" s="7" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B525" s="8">
         <v>43759</v>
@@ -19264,7 +19261,7 @@
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A526" s="7" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B526" s="8">
         <v>43759</v>
@@ -19278,7 +19275,7 @@
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A527" s="7" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B527" s="8">
         <v>43759</v>
@@ -19292,7 +19289,7 @@
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A528" s="7" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B528" s="8">
         <v>43760</v>
@@ -19306,7 +19303,7 @@
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A529" s="7" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B529" s="8">
         <v>43762</v>
@@ -19320,7 +19317,7 @@
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A530" s="7" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B530" s="8">
         <v>43762</v>
@@ -19334,7 +19331,7 @@
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A531" s="7" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B531" s="8">
         <v>43765</v>
@@ -19348,7 +19345,7 @@
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A532" s="7" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B532" s="8">
         <v>43768</v>
@@ -19362,7 +19359,7 @@
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A533" s="7" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B533" s="8">
         <v>43768</v>
@@ -19376,7 +19373,7 @@
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A534" s="7" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B534" s="8">
         <v>43768</v>
@@ -19390,7 +19387,7 @@
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A535" s="7" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B535" s="8">
         <v>43768</v>
@@ -19404,7 +19401,7 @@
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A536" s="7" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B536" s="8">
         <v>43769</v>
@@ -19418,7 +19415,7 @@
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A537" s="7" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B537" s="8">
         <v>43769</v>
@@ -19432,7 +19429,7 @@
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A538" s="7" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B538" s="8">
         <v>43769</v>
@@ -19446,7 +19443,7 @@
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A539" s="7" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B539" s="8">
         <v>43770</v>
@@ -19460,7 +19457,7 @@
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A540" s="7" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B540" s="8">
         <v>43770</v>
@@ -19474,7 +19471,7 @@
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A541" s="7" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="B541" s="8">
         <v>43770</v>
@@ -19488,7 +19485,7 @@
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A542" s="7" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="B542" s="8">
         <v>43770</v>
@@ -19502,7 +19499,7 @@
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A543" s="7" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B543" s="8">
         <v>43770</v>
@@ -19516,7 +19513,7 @@
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A544" s="7" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B544" s="8">
         <v>43771</v>
@@ -19530,7 +19527,7 @@
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A545" s="7" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B545" s="8">
         <v>43771</v>
@@ -19544,7 +19541,7 @@
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A546" s="7" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B546" s="8">
         <v>43771</v>
@@ -19558,7 +19555,7 @@
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A547" s="7" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B547" s="8">
         <v>43772</v>
@@ -19572,7 +19569,7 @@
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A548" s="7" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B548" s="8">
         <v>43772</v>
@@ -19586,7 +19583,7 @@
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A549" s="7" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B549" s="8">
         <v>43772</v>
@@ -19600,7 +19597,7 @@
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A550" s="7" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B550" s="8">
         <v>43772</v>
@@ -19614,7 +19611,7 @@
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A551" s="7" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B551" s="8">
         <v>43773</v>
@@ -19628,7 +19625,7 @@
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A552" s="7" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B552" s="8">
         <v>43773</v>
@@ -19642,7 +19639,7 @@
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A553" s="7" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B553" s="8">
         <v>43778</v>
@@ -19656,7 +19653,7 @@
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A554" s="7" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B554" s="8">
         <v>43778</v>
@@ -19670,7 +19667,7 @@
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A555" s="7" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="B555" s="8">
         <v>43779</v>
@@ -19684,7 +19681,7 @@
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A556" s="7" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B556" s="8">
         <v>43779</v>
@@ -19698,7 +19695,7 @@
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A557" s="7" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B557" s="8">
         <v>43779</v>
@@ -19712,7 +19709,7 @@
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A558" s="7" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B558" s="8">
         <v>43780</v>
@@ -19726,7 +19723,7 @@
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A559" s="7" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B559" s="8">
         <v>43780</v>
@@ -19740,7 +19737,7 @@
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A560" s="7" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B560" s="8">
         <v>43780</v>
@@ -19754,7 +19751,7 @@
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A561" s="7" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B561" s="8">
         <v>43784</v>
@@ -19768,7 +19765,7 @@
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A562" s="7" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B562" s="8">
         <v>43784</v>
@@ -19782,7 +19779,7 @@
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A563" s="7" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B563" s="8">
         <v>43784</v>
@@ -19796,7 +19793,7 @@
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A564" s="7" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B564" s="8">
         <v>43784</v>
@@ -19810,7 +19807,7 @@
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A565" s="7" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B565" s="8">
         <v>43784</v>
@@ -19824,7 +19821,7 @@
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A566" s="7" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B566" s="8">
         <v>43785</v>
@@ -19838,7 +19835,7 @@
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A567" s="7" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B567" s="8">
         <v>43785</v>
@@ -19852,7 +19849,7 @@
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A568" s="7" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B568" s="8">
         <v>43789</v>
@@ -19866,7 +19863,7 @@
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A569" s="7" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B569" s="8">
         <v>43789</v>
@@ -19880,7 +19877,7 @@
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A570" s="7" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="B570" s="8">
         <v>43789</v>
@@ -19894,7 +19891,7 @@
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A571" s="7" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B571" s="8">
         <v>43791</v>
@@ -19908,7 +19905,7 @@
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A572" s="7" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B572" s="8">
         <v>43791</v>
@@ -19922,7 +19919,7 @@
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A573" s="7" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B573" s="8">
         <v>43792</v>
@@ -19936,7 +19933,7 @@
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A574" s="7" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B574" s="8">
         <v>43792</v>
@@ -19950,7 +19947,7 @@
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A575" s="7" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="B575" s="8">
         <v>43793</v>
@@ -19964,7 +19961,7 @@
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A576" s="7" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="B576" s="8">
         <v>43793</v>
@@ -19978,7 +19975,7 @@
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A577" s="7" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B577" s="8">
         <v>43793</v>
@@ -19992,7 +19989,7 @@
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A578" s="7" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B578" s="8">
         <v>43793</v>
@@ -20006,7 +20003,7 @@
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A579" s="7" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="B579" s="8">
         <v>43794</v>
@@ -20020,7 +20017,7 @@
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A580" s="7" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="B580" s="8">
         <v>43794</v>
@@ -20034,7 +20031,7 @@
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A581" s="7" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="B581" s="8">
         <v>43794</v>
@@ -20048,7 +20045,7 @@
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A582" s="7" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="B582" s="8">
         <v>43794</v>
@@ -20062,7 +20059,7 @@
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A583" s="7" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B583" s="8">
         <v>43794</v>
@@ -20076,7 +20073,7 @@
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A584" s="7" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B584" s="8">
         <v>43796</v>
@@ -20090,7 +20087,7 @@
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A585" s="7" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B585" s="8">
         <v>43800</v>
@@ -20104,7 +20101,7 @@
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A586" s="7" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="B586" s="8">
         <v>43800</v>
@@ -20118,7 +20115,7 @@
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A587" s="7" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="B587" s="8">
         <v>43800</v>
@@ -20132,7 +20129,7 @@
     </row>
     <row r="588" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A588" s="7" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="B588" s="8">
         <v>43800</v>
@@ -20146,7 +20143,7 @@
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A589" s="7" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="B589" s="8">
         <v>43803</v>
@@ -20160,7 +20157,7 @@
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A590" s="7" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B590" s="8">
         <v>43803</v>
@@ -20174,7 +20171,7 @@
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A591" s="7" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B591" s="8">
         <v>43803</v>
@@ -20188,7 +20185,7 @@
     </row>
     <row r="592" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A592" s="7" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="B592" s="8">
         <v>43804</v>
@@ -20202,7 +20199,7 @@
     </row>
     <row r="593" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A593" s="7" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B593" s="8">
         <v>43804</v>
@@ -20216,7 +20213,7 @@
     </row>
     <row r="594" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A594" s="7" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="B594" s="8">
         <v>43804</v>
@@ -20230,7 +20227,7 @@
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A595" s="7" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="B595" s="8">
         <v>43804</v>
@@ -20244,7 +20241,7 @@
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A596" s="7" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B596" s="8">
         <v>43804</v>
@@ -20258,7 +20255,7 @@
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A597" s="7" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="B597" s="8">
         <v>43804</v>
@@ -20272,7 +20269,7 @@
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A598" s="7" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B598" s="8">
         <v>43805</v>
@@ -20286,7 +20283,7 @@
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A599" s="7" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="B599" s="8">
         <v>43805</v>
@@ -20300,7 +20297,7 @@
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A600" s="7" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="B600" s="8">
         <v>43806</v>
@@ -20314,7 +20311,7 @@
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A601" s="7" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B601" s="8">
         <v>43807</v>
@@ -20328,7 +20325,7 @@
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A602" s="7" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B602" s="8">
         <v>43807</v>
@@ -20342,7 +20339,7 @@
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A603" s="7" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B603" s="8">
         <v>43807</v>
@@ -20356,7 +20353,7 @@
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A604" s="7" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="B604" s="8">
         <v>43807</v>
@@ -20370,7 +20367,7 @@
     </row>
     <row r="605" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A605" s="7" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B605" s="8">
         <v>43807</v>
@@ -20384,7 +20381,7 @@
     </row>
     <row r="606" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A606" s="7" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B606" s="8">
         <v>43807</v>
@@ -20398,7 +20395,7 @@
     </row>
     <row r="607" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A607" s="7" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B607" s="8">
         <v>43807</v>
@@ -20412,7 +20409,7 @@
     </row>
     <row r="608" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A608" s="7" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B608" s="8">
         <v>43809</v>
@@ -20426,7 +20423,7 @@
     </row>
     <row r="609" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A609" s="7" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B609" s="8">
         <v>43809</v>
@@ -20440,7 +20437,7 @@
     </row>
     <row r="610" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A610" s="7" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B610" s="8">
         <v>43809</v>
@@ -20454,7 +20451,7 @@
     </row>
     <row r="611" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A611" s="7" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B611" s="8">
         <v>43809</v>
@@ -20468,7 +20465,7 @@
     </row>
     <row r="612" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A612" s="7" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B612" s="8">
         <v>43809</v>
@@ -20482,7 +20479,7 @@
     </row>
     <row r="613" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A613" s="7" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B613" s="8">
         <v>43809</v>
@@ -20496,7 +20493,7 @@
     </row>
     <row r="614" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A614" s="7" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="B614" s="8">
         <v>43811</v>
@@ -20510,7 +20507,7 @@
     </row>
     <row r="615" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A615" s="7" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="B615" s="8">
         <v>43811</v>
@@ -20524,7 +20521,7 @@
     </row>
     <row r="616" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A616" s="7" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="B616" s="8">
         <v>43811</v>
@@ -20538,7 +20535,7 @@
     </row>
     <row r="617" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A617" s="7" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B617" s="8">
         <v>43811</v>
@@ -20552,7 +20549,7 @@
     </row>
     <row r="618" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A618" s="7" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="B618" s="8">
         <v>43812</v>
@@ -20566,7 +20563,7 @@
     </row>
     <row r="619" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A619" s="7" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="B619" s="8">
         <v>43812</v>
@@ -20580,7 +20577,7 @@
     </row>
     <row r="620" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A620" s="7" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="B620" s="8">
         <v>43813</v>
@@ -20594,7 +20591,7 @@
     </row>
     <row r="621" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A621" s="7" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B621" s="8">
         <v>43813</v>
@@ -20608,7 +20605,7 @@
     </row>
     <row r="622" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A622" s="7" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="B622" s="8">
         <v>43813</v>
@@ -20622,7 +20619,7 @@
     </row>
     <row r="623" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A623" s="7" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B623" s="8">
         <v>43813</v>
@@ -20636,7 +20633,7 @@
     </row>
     <row r="624" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A624" s="7" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B624" s="8">
         <v>43813</v>
@@ -20650,7 +20647,7 @@
     </row>
     <row r="625" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A625" s="7" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="B625" s="8">
         <v>43813</v>
@@ -20664,7 +20661,7 @@
     </row>
     <row r="626" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A626" s="7" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="B626" s="8">
         <v>43814</v>
@@ -20678,7 +20675,7 @@
     </row>
     <row r="627" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A627" s="7" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B627" s="8">
         <v>43814</v>
@@ -20692,7 +20689,7 @@
     </row>
     <row r="628" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A628" s="7" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B628" s="8">
         <v>43815</v>
@@ -20706,7 +20703,7 @@
     </row>
     <row r="629" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A629" s="7" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="B629" s="8">
         <v>43816</v>
@@ -20720,7 +20717,7 @@
     </row>
     <row r="630" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A630" s="7" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="B630" s="8">
         <v>43816</v>
@@ -20734,7 +20731,7 @@
     </row>
     <row r="631" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A631" s="7" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B631" s="8">
         <v>43816</v>
@@ -20748,7 +20745,7 @@
     </row>
     <row r="632" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A632" s="7" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B632" s="8">
         <v>43816</v>
@@ -20762,7 +20759,7 @@
     </row>
     <row r="633" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A633" s="7" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B633" s="8">
         <v>43816</v>
@@ -20776,7 +20773,7 @@
     </row>
     <row r="634" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A634" s="7" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="B634" s="8">
         <v>43819</v>
@@ -20790,7 +20787,7 @@
     </row>
     <row r="635" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A635" s="7" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="B635" s="8">
         <v>43819</v>
@@ -20804,7 +20801,7 @@
     </row>
     <row r="636" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A636" s="7" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="B636" s="8">
         <v>43819</v>
@@ -20818,7 +20815,7 @@
     </row>
     <row r="637" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A637" s="7" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="B637" s="8">
         <v>43819</v>
@@ -20832,7 +20829,7 @@
     </row>
     <row r="638" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A638" s="7" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B638" s="8">
         <v>43819</v>
@@ -20846,7 +20843,7 @@
     </row>
     <row r="639" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A639" s="7" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="B639" s="8">
         <v>43819</v>
@@ -20860,7 +20857,7 @@
     </row>
     <row r="640" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A640" s="7" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="B640" s="8">
         <v>43820</v>
@@ -20874,7 +20871,7 @@
     </row>
     <row r="641" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A641" s="7" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="B641" s="8">
         <v>43820</v>
@@ -20888,7 +20885,7 @@
     </row>
     <row r="642" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A642" s="7" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="B642" s="8">
         <v>43820</v>
@@ -20902,7 +20899,7 @@
     </row>
     <row r="643" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A643" s="7" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="B643" s="8">
         <v>43821</v>
@@ -20916,7 +20913,7 @@
     </row>
     <row r="644" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A644" s="7" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B644" s="8">
         <v>43821</v>
@@ -20930,7 +20927,7 @@
     </row>
     <row r="645" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A645" s="7" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B645" s="8">
         <v>43823</v>
@@ -20944,7 +20941,7 @@
     </row>
     <row r="646" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A646" s="7" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B646" s="8">
         <v>43823</v>
@@ -20958,7 +20955,7 @@
     </row>
     <row r="647" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A647" s="7" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B647" s="8">
         <v>43823</v>
@@ -20972,7 +20969,7 @@
     </row>
     <row r="648" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A648" s="7" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B648" s="8">
         <v>43824</v>
@@ -20986,7 +20983,7 @@
     </row>
     <row r="649" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A649" s="7" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B649" s="8">
         <v>43824</v>
@@ -21000,7 +20997,7 @@
     </row>
     <row r="650" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A650" s="7" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B650" s="8">
         <v>43824</v>
@@ -21014,7 +21011,7 @@
     </row>
     <row r="651" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A651" s="7" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="B651" s="8">
         <v>43825</v>
@@ -21028,7 +21025,7 @@
     </row>
     <row r="652" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A652" s="7" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B652" s="8">
         <v>43827</v>
@@ -21042,7 +21039,7 @@
     </row>
     <row r="653" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A653" s="7" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B653" s="8">
         <v>43828</v>
@@ -21056,7 +21053,7 @@
     </row>
     <row r="654" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A654" s="7" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B654" s="8">
         <v>43830</v>
